--- a/Assets/Configs/BuildingTable.xlsx
+++ b/Assets/Configs/BuildingTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>BuildingID</t>
   </si>
@@ -48,6 +48,9 @@
   <si>
     <t>building_1</t>
   </si>
+  <si>
+    <t>building_2</t>
+  </si>
 </sst>
 </file>
 
@@ -59,14 +62,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,48 +520,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,97 +574,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,7 +1036,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1127,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>

--- a/Assets/Configs/BuildingTable.xlsx
+++ b/Assets/Configs/BuildingTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>BuildingID</t>
   </si>
@@ -50,6 +50,30 @@
   </si>
   <si>
     <t>building_2</t>
+  </si>
+  <si>
+    <t>building_101</t>
+  </si>
+  <si>
+    <t>宝塔</t>
+  </si>
+  <si>
+    <t>building_201</t>
+  </si>
+  <si>
+    <t>院子</t>
+  </si>
+  <si>
+    <t>building_301</t>
+  </si>
+  <si>
+    <t>农田</t>
+  </si>
+  <si>
+    <t>building_401</t>
+  </si>
+  <si>
+    <t>马车</t>
   </si>
 </sst>
 </file>
@@ -731,8 +755,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G8" totalsRowShown="0">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="BuildingID"/>
     <tableColumn id="7" name="ResourcePath"/>
@@ -1033,13 +1057,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
@@ -1141,6 +1165,98 @@
         <v>100</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Configs/BuildingTable.xlsx
+++ b/Assets/Configs/BuildingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10418D14-2502-46B5-BF00-722339F8BC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17618D9-A31E-4FC0-8E19-96801F7E9E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,60 +25,52 @@
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2DF3D2B9-0A88-4DD3-BBF7-7475C80326C7}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>唯一id，从0开始</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9234F4B6-61FC-4424-B0CA-7ACD23E3ECAE}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>资源路径</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B7D34010-4963-4C92-9C91-9224825030DC}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>建筑名称</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{21199D12-237A-49EE-B645-13C237EB291C}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>建筑类型：
@@ -89,13 +81,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{6A0DF263-FDBD-413A-921E-58C721AEC72C}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -103,62 +94,28 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F36E1DDD-0FEA-47C3-9EC7-DEE858ADC855}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>材料类型（数组）</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t>材料类型（数组）:
 0木材
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1铁
+1铁
 2黄金</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{7981E32A-F81E-447E-87D4-68A5BCEF6EDC}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -166,13 +123,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{47A634A1-08A8-4405-B711-C8FBA1A41FAC}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -180,13 +136,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{15697FFA-4BEF-4AA7-8C43-37E177193C00}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -194,30 +149,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{FE8126F4-32A8-4D89-B4D9-1A5FC14D5B33}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>cd时间，等级也从这里获取</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{8D4E5BBE-2ABC-477E-B61D-D0614E1EF44F}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出类型：
@@ -227,30 +178,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{C66C6E23-E553-4EF7-A7BF-DE903E400016}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出物品id</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{C5A126F4-A07D-4BBC-BB76-44DD75ADAC74}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>产出物品量</t>
@@ -262,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>BuildingID</t>
   </si>
@@ -285,13 +232,37 @@
     <t>CurrencyCount</t>
   </si>
   <si>
-    <t>building_0</t>
-  </si>
-  <si>
-    <t>building_1</t>
-  </si>
-  <si>
-    <t>building_2</t>
+    <t>RowCount</t>
+  </si>
+  <si>
+    <t>ColCount</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>ProduceType</t>
+  </si>
+  <si>
+    <t>ProduceID</t>
+  </si>
+  <si>
+    <t>ProduceAmount</t>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>1000,</t>
+  </si>
+  <si>
+    <t>-1,</t>
+  </si>
+  <si>
+    <t>8,6,4,</t>
+  </si>
+  <si>
+    <t>9,7,5,</t>
   </si>
   <si>
     <t>building_101</t>
@@ -306,116 +277,101 @@
     <t>院子</t>
   </si>
   <si>
+    <t>16,13,10,8,</t>
+  </si>
+  <si>
+    <t>100,200,300,400,</t>
+  </si>
+  <si>
     <t>building_301</t>
   </si>
   <si>
     <t>农田</t>
   </si>
   <si>
+    <t>1,2,3,</t>
+  </si>
+  <si>
     <t>building_401</t>
   </si>
   <si>
     <t>马车</t>
   </si>
   <si>
-    <t>RowCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝塔测试版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民居1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民居2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>building_402</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>building_403</t>
+  </si>
+  <si>
+    <t>桥</t>
+  </si>
+  <si>
+    <t>building_202</t>
+  </si>
+  <si>
+    <t>民居02</t>
+  </si>
+  <si>
+    <t>building_203</t>
+  </si>
+  <si>
+    <t>民居03</t>
+  </si>
+  <si>
+    <t>building_204</t>
+  </si>
+  <si>
+    <t>民居04</t>
+  </si>
+  <si>
+    <t>building_205</t>
+  </si>
+  <si>
+    <t>民居05</t>
+  </si>
+  <si>
+    <t>20,40,60,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,60,80,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>700,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,6,4,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,7,5,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,13,10,8,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProduceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProduceID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProduceAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,40,60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,60,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,200,300,400,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>院子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>民居02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -431,8 +387,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -443,21 +413,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -482,14 +437,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,8 +468,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:M8" totalsRowShown="0">
-  <autoFilter ref="A1:M8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:M11" totalsRowShown="0">
+  <autoFilter ref="A1:M11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
@@ -520,12 +478,12 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
-    <tableColumn id="8" xr3:uid="{B138B366-F7D9-4479-B250-FFD5C3E3E841}" name="RowCount"/>
-    <tableColumn id="9" xr3:uid="{9738EAA4-370A-421E-A080-04739F33C1D9}" name="ColCount"/>
-    <tableColumn id="15" xr3:uid="{CB66E4BA-9C53-419B-A9D7-5FFC36A56628}" name="Cd"/>
-    <tableColumn id="16" xr3:uid="{2B7A1252-2EF5-49E3-B364-915BCF7815AF}" name="ProduceType"/>
-    <tableColumn id="17" xr3:uid="{FCDD7EF5-F30F-4352-8EFB-7161C9E7DB17}" name="ProduceID"/>
-    <tableColumn id="18" xr3:uid="{3AACE97F-D3B8-4C13-9AE8-D44B9D4821FB}" name="ProduceAmount"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ProduceType"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ProduceID"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ProduceAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -818,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -832,7 +790,7 @@
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" customWidth="1"/>
     <col min="11" max="11" width="14.88671875" customWidth="1"/>
     <col min="12" max="12" width="13.109375" customWidth="1"/>
@@ -862,22 +820,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -885,22 +843,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -909,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -918,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -926,32 +884,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
@@ -959,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -967,40 +925,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1008,31 +966,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1041,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1049,40 +1007,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>41</v>
+      <c r="M6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1090,40 +1048,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>100</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1131,44 +1089,167 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>24</v>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>

--- a/Assets/Configs/BuildingTable.xlsx
+++ b/Assets/Configs/BuildingTable.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17618D9-A31E-4FC0-8E19-96801F7E9E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +32,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,11 +126,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>列数</t>
+          <t>列数(x方向)</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,11 +139,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>行数</t>
+          <t>行数(z方向)</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>BuildingID</t>
   </si>
@@ -250,6 +244,12 @@
     <t>ProduceAmount</t>
   </si>
   <si>
+    <t>building_101</t>
+  </si>
+  <si>
+    <t>宝塔</t>
+  </si>
+  <si>
     <t>0,</t>
   </si>
   <si>
@@ -259,67 +259,82 @@
     <t>-1,</t>
   </si>
   <si>
+    <t>building_201</t>
+  </si>
+  <si>
+    <t>院子</t>
+  </si>
+  <si>
+    <t>700,</t>
+  </si>
+  <si>
+    <t>16,13,10,8,</t>
+  </si>
+  <si>
+    <t>100,200,300,400,</t>
+  </si>
+  <si>
+    <t>building_301</t>
+  </si>
+  <si>
+    <t>农田</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
     <t>8,6,4,</t>
   </si>
   <si>
+    <t>1,2,3,</t>
+  </si>
+  <si>
+    <t>building_401</t>
+  </si>
+  <si>
+    <t>马车</t>
+  </si>
+  <si>
+    <t>100,</t>
+  </si>
+  <si>
+    <t>building_402</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>building_403</t>
+  </si>
+  <si>
+    <t>桥</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>building_202</t>
+  </si>
+  <si>
+    <t>民居02</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>20,40,60,</t>
+  </si>
+  <si>
+    <t>building_203</t>
+  </si>
+  <si>
+    <t>民居03</t>
+  </si>
+  <si>
     <t>9,7,5,</t>
   </si>
   <si>
-    <t>building_101</t>
-  </si>
-  <si>
-    <t>宝塔</t>
-  </si>
-  <si>
-    <t>building_201</t>
-  </si>
-  <si>
-    <t>院子</t>
-  </si>
-  <si>
-    <t>16,13,10,8,</t>
-  </si>
-  <si>
-    <t>100,200,300,400,</t>
-  </si>
-  <si>
-    <t>building_301</t>
-  </si>
-  <si>
-    <t>农田</t>
-  </si>
-  <si>
-    <t>1,2,3,</t>
-  </si>
-  <si>
-    <t>building_401</t>
-  </si>
-  <si>
-    <t>马车</t>
-  </si>
-  <si>
-    <t>building_402</t>
-  </si>
-  <si>
-    <t>道路</t>
-  </si>
-  <si>
-    <t>building_403</t>
-  </si>
-  <si>
-    <t>桥</t>
-  </si>
-  <si>
-    <t>building_202</t>
-  </si>
-  <si>
-    <t>民居02</t>
-  </si>
-  <si>
-    <t>building_203</t>
-  </si>
-  <si>
-    <t>民居03</t>
+    <t>40,60,80,</t>
   </si>
   <si>
     <t>building_204</t>
@@ -334,51 +349,20 @@
     <t>民居05</t>
   </si>
   <si>
-    <t>20,40,60,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,60,80,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>400,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>700,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>院子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>民居02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,7 +374,144 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,31 +520,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -431,59 +723,345 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:M11" totalsRowShown="0">
-  <autoFilter ref="A1:M11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M11" totalsRowShown="0">
+  <autoFilter ref="A1:M11"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BuildingType"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ProduceType"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ProduceID"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ProduceAmount"/>
+    <tableColumn id="1" name="BuildingID"/>
+    <tableColumn id="7" name="ResourcePath"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="BuildingType"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="CurrencyType"/>
+    <tableColumn id="6" name="CurrencyCount"/>
+    <tableColumn id="8" name="RowCount"/>
+    <tableColumn id="9" name="ColCount"/>
+    <tableColumn id="15" name="Cd"/>
+    <tableColumn id="16" name="ProduceType"/>
+    <tableColumn id="17" name="ProduceID"/>
+    <tableColumn id="18" name="ProduceAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,34 +1348,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" customWidth="1"/>
+    <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="15.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.8888888888889" customWidth="1"/>
+    <col min="8" max="9" width="12.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="11.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="14.8888888888889" customWidth="1"/>
+    <col min="12" max="12" width="13.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -838,27 +1416,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -866,8 +1444,8 @@
       <c r="I2">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -876,30 +1454,30 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -908,39 +1486,39 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -949,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -958,39 +1536,39 @@
         <v>100</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>15</v>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -999,39 +1577,39 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
+      <c r="J6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1040,39 +1618,39 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
         <v>8</v>
       </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>15</v>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1081,39 +1659,39 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1121,31 +1699,31 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>41</v>
+      <c r="M8" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1154,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1162,40 +1740,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>42</v>
+      <c r="M9" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1203,40 +1781,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>41</v>
+      <c r="M10" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1244,17 +1822,17 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>42</v>
+      <c r="M11" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Configs/BuildingTable.xlsx
+++ b/Assets/Configs/BuildingTable.xlsx
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>27</v>

--- a/Assets/Configs/BuildingTable.xlsx
+++ b/Assets/Configs/BuildingTable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47428E3A-1E92-4A28-8F41-C5735D7F7886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -32,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -286,9 +292,6 @@
     <t>8,6,4,</t>
   </si>
   <si>
-    <t>1,2,3,</t>
-  </si>
-  <si>
     <t>building_401</t>
   </si>
   <si>
@@ -310,18 +313,12 @@
     <t>桥</t>
   </si>
   <si>
-    <t>10,</t>
-  </si>
-  <si>
     <t>building_202</t>
   </si>
   <si>
     <t>民居02</t>
   </si>
   <si>
-    <t>200,</t>
-  </si>
-  <si>
     <t>20,40,60,</t>
   </si>
   <si>
@@ -349,20 +346,27 @@
     <t>民居05</t>
   </si>
   <si>
-    <t>400,</t>
+    <t>100,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20,30,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,351 +375,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -723,251 +412,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,93 +422,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M11" totalsRowShown="0">
-  <autoFilter ref="A1:M11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:M11" totalsRowShown="0">
+  <autoFilter ref="A1:M11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="BuildingID"/>
-    <tableColumn id="7" name="ResourcePath"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="BuildingType"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="CurrencyType"/>
-    <tableColumn id="6" name="CurrencyCount"/>
-    <tableColumn id="8" name="RowCount"/>
-    <tableColumn id="9" name="ColCount"/>
-    <tableColumn id="15" name="Cd"/>
-    <tableColumn id="16" name="ProduceType"/>
-    <tableColumn id="17" name="ProduceID"/>
-    <tableColumn id="18" name="ProduceAmount"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="BuildingID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ResourcePath"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BuildingType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CurrencyType"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CurrencyCount"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="RowCount"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ColCount"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cd"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ProduceType"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ProduceID"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ProduceAmount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1348,34 +748,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="15.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="16.8888888888889" customWidth="1"/>
-    <col min="8" max="9" width="12.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="11.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="14.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="13.1111111111111" customWidth="1"/>
-    <col min="13" max="13" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1397,33 +797,33 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2">
@@ -1432,10 +832,10 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2">
@@ -1444,7 +844,7 @@
       <c r="I2">
         <v>2</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K2">
@@ -1453,18 +853,18 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3">
@@ -1473,10 +873,10 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3">
@@ -1485,7 +885,7 @@
       <c r="I3">
         <v>4</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
       <c r="K3">
@@ -1494,11 +894,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1514,10 +914,10 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>25</v>
       </c>
       <c r="H4">
@@ -1526,40 +926,40 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>29</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1567,7 +967,7 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
@@ -1576,30 +976,30 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>25</v>
       </c>
       <c r="H6">
@@ -1608,7 +1008,7 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
@@ -1621,27 +1021,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1649,7 +1049,7 @@
       <c r="I7">
         <v>8</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K7">
@@ -1662,27 +1062,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>38</v>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1690,7 +1090,7 @@
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>26</v>
       </c>
       <c r="K8">
@@ -1699,72 +1099,72 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>39</v>
+      <c r="M8" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>38</v>
+      <c r="G10" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1772,7 +1172,7 @@
       <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>26</v>
       </c>
       <c r="K10">
@@ -1781,31 +1181,31 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>39</v>
+      <c r="M10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1813,8 +1213,8 @@
       <c r="I11">
         <v>3</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>42</v>
+      <c r="J11" t="s">
+        <v>39</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1822,17 +1222,17 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>43</v>
+      <c r="M11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>